--- a/assets/demo/api/Playlist.xlsx
+++ b/assets/demo/api/Playlist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17565" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="16770" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>RuleSet</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Song</t>
   </si>
   <si>
-    <t>Train in Vain, The Clash</t>
-  </si>
-  <si>
     <t>RuleTable Playlist</t>
   </si>
   <si>
@@ -101,13 +98,64 @@
   </si>
   <si>
     <t>folk</t>
+  </si>
+  <si>
+    <t>Help Me, Jonie Mitchell</t>
+  </si>
+  <si>
+    <t>Blowin' in the Wind, Bob Dylan</t>
+  </si>
+  <si>
+    <t>I Wanna Be Sedated, Ramones</t>
+  </si>
+  <si>
+    <t>Los Angeles, X</t>
+  </si>
+  <si>
+    <t>Ever Fallen in Love, Buzzcocks</t>
+  </si>
+  <si>
+    <t>Train in Vain, Clash</t>
+  </si>
+  <si>
+    <t>Bring on the Dancing Horses, Echo &amp; The Bunnymen</t>
+  </si>
+  <si>
+    <t>Life in a Northern Town, Dream Academy</t>
+  </si>
+  <si>
+    <t>And is it Like Today?, World Party</t>
+  </si>
+  <si>
+    <t>Here's Where the Story Ends, Sundays</t>
+  </si>
+  <si>
+    <t>Angel Won't You Call Me?, Decemberists</t>
+  </si>
+  <si>
+    <t>Capturing Moods, Rilo Kiley</t>
+  </si>
+  <si>
+    <t>Longview, Greenday</t>
+  </si>
+  <si>
+    <t>Roots Radicals, Rancid</t>
+  </si>
+  <si>
+    <t>Diamonds &amp; Guns, Transplants</t>
+  </si>
+  <si>
+    <t>Oh Yeah, Cliks</t>
+  </si>
+  <si>
+    <t>Status.NOT_FOUND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,9 +343,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -320,12 +365,48 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -438,6 +520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" customWidth="1"/>
@@ -628,13 +711,13 @@
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7"/>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -646,31 +729,31 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" customFormat="1">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" customFormat="1">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -682,18 +765,18 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" customFormat="1"/>
-    <row r="8" spans="1:7" customFormat="1">
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" customFormat="1">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -704,187 +787,233 @@
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1">
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" customFormat="1">
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12">
+        <v>1960</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" customFormat="1">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13">
-        <v>1960</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" customFormat="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" customFormat="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13">
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12">
         <v>1970</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" customFormat="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" customFormat="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13">
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12">
         <v>1980</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" customFormat="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" customFormat="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13">
+      <c r="D18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12">
         <v>1990</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" customFormat="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" customFormat="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13">
+      <c r="D20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="12">
         <v>2000</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" customFormat="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" customFormat="1" ht="15" customHeight="1"/>
-    <row r="24" spans="1:7" customFormat="1"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B13:B14"/>
@@ -899,24 +1028,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
